--- a/data/transcriptions/transcription_ex5.xlsx
+++ b/data/transcriptions/transcription_ex5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Library/CloudStorage/OneDrive-VrijeUniversiteitBrussel/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25FB2CB-5CE7-5A40-A6F6-0843C9F716ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18400" yWindow="760" windowWidth="11840" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -610,6 +610,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -624,15 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +647,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,54 +968,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="133" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="26"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="26"/>
+      <c r="S1" s="29"/>
       <c r="T1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1030,8 +1024,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1042,8 +1036,8 @@
         <v>2</v>
       </c>
       <c r="F2" s="15"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1062,7 @@
       <c r="P2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="28"/>
+      <c r="Q2" s="31"/>
       <c r="R2" s="17" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1086,7 @@
       <c r="H3" s="23"/>
       <c r="K3" s="22"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="33"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="23"/>
@@ -1145,7 +1139,7 @@
         <v>52</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="30" t="s">
+      <c r="R4" t="s">
         <v>84</v>
       </c>
       <c r="S4" s="1">
@@ -1193,7 +1187,7 @@
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="25" t="s">
         <v>65</v>
       </c>
       <c r="I6">
@@ -1223,7 +1217,6 @@
       <c r="B7" s="1"/>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="31"/>
       <c r="H7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
@@ -1257,13 +1250,13 @@
         <v>51</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="30" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="1"/>
@@ -1300,7 +1293,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1442,7 +1435,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="30" t="s">
+      <c r="R12" t="s">
         <v>83</v>
       </c>
       <c r="S12">
@@ -1490,7 +1483,7 @@
         <v>73</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="30" t="s">
+      <c r="R13" t="s">
         <v>88</v>
       </c>
       <c r="T13" s="2"/>
@@ -1539,7 +1532,7 @@
       <c r="H15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="1"/>
@@ -1555,7 +1548,7 @@
         <v>52</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="30" t="s">
+      <c r="R15" t="s">
         <v>52</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -1602,7 +1595,7 @@
         <v>80</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="30" t="s">
+      <c r="R16" t="s">
         <v>90</v>
       </c>
       <c r="S16" s="1">
@@ -1649,7 +1642,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="30" t="s">
+      <c r="R17" t="s">
         <v>88</v>
       </c>
       <c r="S17" s="1"/>
@@ -1696,7 +1689,7 @@
         <v>83</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="30" t="s">
+      <c r="R18" t="s">
         <v>91</v>
       </c>
       <c r="S18" s="1">
@@ -1770,7 +1763,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="34"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="2"/>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>

--- a/data/transcriptions/transcription_ex5.xlsx
+++ b/data/transcriptions/transcription_ex5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Library/CloudStorage/OneDrive-VrijeUniversiteitBrussel/img-analysis_seorin_project/data/transcriptions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5139C27E-5A2B-9343-80EE-677DFE6DC086}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="760" windowWidth="11840" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_46_44_798" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>Nom.</t>
   </si>
@@ -119,9 +119,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>servais</t>
-  </si>
-  <si>
     <t>Steemans</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>Delaitre</t>
   </si>
   <si>
-    <t>Arreté le dix neuf novembre 1919</t>
-  </si>
-  <si>
-    <t>Arreté le vingt novembre 1919</t>
-  </si>
-  <si>
     <t>Moens</t>
   </si>
   <si>
@@ -369,6 +360,15 @@
   </si>
   <si>
     <t>Pourtois Célestîne</t>
+  </si>
+  <si>
+    <t>Arreté le dix neuf novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le vingt novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -647,6 +647,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="133" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1039,9 @@
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="17" t="s">
@@ -1096,26 +1102,26 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I4">
         <v>5755</v>
@@ -1129,18 +1135,18 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S4" s="1">
         <v>332</v>
@@ -1159,7 +1165,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S5">
         <v>24</v>
@@ -1169,26 +1175,26 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>500</v>
@@ -1198,13 +1204,13 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S6">
         <v>318</v>
@@ -1225,7 +1231,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S7">
         <v>378</v>
@@ -1235,43 +1241,43 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
       <c r="M8" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1281,23 +1287,23 @@
         <v>422</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>346</v>
@@ -1313,14 +1319,14 @@
       <c r="M9" s="11"/>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1330,23 +1336,23 @@
         <v>423</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2875</v>
@@ -1358,14 +1364,14 @@
       <c r="M10" s="11"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S10">
         <v>60</v>
@@ -1376,12 +1382,9 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1399,23 +1402,23 @@
         <v>424</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I12">
         <v>86181</v>
@@ -1426,17 +1429,17 @@
       <c r="L12" s="2"/>
       <c r="M12" s="10"/>
       <c r="N12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S12">
         <v>83</v>
@@ -1449,23 +1452,23 @@
         <v>425</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I13">
         <v>1500</v>
@@ -1477,14 +1480,14 @@
       <c r="M13" s="10"/>
       <c r="N13" s="1"/>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1492,12 +1495,9 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1511,48 +1511,48 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1562,23 +1562,23 @@
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I16">
         <v>2361</v>
@@ -1589,14 +1589,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S16" s="1">
         <v>86</v>
@@ -1609,23 +1609,23 @@
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I17">
         <v>1576</v>
@@ -1636,14 +1636,14 @@
       <c r="L17" s="2"/>
       <c r="N17" s="1"/>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="2"/>
@@ -1654,23 +1654,23 @@
         <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I18">
         <v>4000</v>
@@ -1680,17 +1680,17 @@
       </c>
       <c r="L18" s="2"/>
       <c r="N18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S18" s="1">
         <v>79</v>

--- a/data/transcriptions/transcription_ex5.xlsx
+++ b/data/transcriptions/transcription_ex5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5139C27E-5A2B-9343-80EE-677DFE6DC086}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6685BEDA-3929-C549-8470-32E6EDB55B84}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>Nom.</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>Arreté le vingt novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -519,30 +516,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -562,14 +539,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -584,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,11 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -616,6 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -647,10 +621,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,138 +940,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="12" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="13" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="T1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="17" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21">
+    <row r="3" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="17">
         <v>1919</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1116,65 +1081,64 @@
       <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="H4">
+        <v>5755</v>
+      </c>
       <c r="I4">
-        <v>5755</v>
-      </c>
-      <c r="J4">
         <v>279</v>
       </c>
-      <c r="K4" s="1">
-        <f>I4-J4</f>
+      <c r="J4" s="1">
+        <f>H4-I4</f>
         <v>5476</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="11" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" t="s">
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="1">
+      <c r="R4" s="1">
         <v>332</v>
       </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F5" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s">
         <v>82</v>
       </c>
-      <c r="S5">
+      <c r="R5">
         <v>24</v>
       </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1186,61 +1150,59 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>500</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J6" s="1">
         <v>500</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="10" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s">
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s">
         <v>83</v>
       </c>
-      <c r="S6">
+      <c r="R6">
         <v>318</v>
       </c>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="9"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s">
+      <c r="E7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s">
         <v>84</v>
       </c>
-      <c r="S7">
+      <c r="R7">
         <v>378</v>
       </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1252,38 +1214,37 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="11" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
       <c r="R8" t="s">
         <v>49</v>
       </c>
-      <c r="S8" t="s">
-        <v>49</v>
-      </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>422</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1295,44 +1256,43 @@
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="H9">
+        <v>346</v>
+      </c>
       <c r="I9">
-        <v>346</v>
-      </c>
-      <c r="J9">
         <v>225</v>
       </c>
-      <c r="K9" s="1">
-        <f>I9-J9</f>
+      <c r="J9" s="1">
+        <f>H9-I9</f>
         <v>121</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="1"/>
-      <c r="O9" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="1"/>
+      <c r="N9" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s">
         <v>85</v>
       </c>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>423</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1344,61 +1304,60 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>2875</v>
       </c>
-      <c r="K10" s="1">
+      <c r="J10" s="1">
         <v>2875</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="1"/>
-      <c r="O10" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="1"/>
+      <c r="N10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s">
         <v>86</v>
       </c>
-      <c r="S10">
+      <c r="R10">
         <v>60</v>
       </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>424</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1407,48 +1366,47 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>86181</v>
       </c>
-      <c r="K12" s="1">
+      <c r="J12" s="1">
         <v>86181</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="1" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s">
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s">
         <v>80</v>
       </c>
-      <c r="S12">
+      <c r="R12">
         <v>83</v>
       </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>425</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1460,57 +1418,56 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>1500</v>
       </c>
-      <c r="K13" s="1">
+      <c r="J13" s="1">
         <v>1500</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="1"/>
-      <c r="O13" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s">
         <v>85</v>
       </c>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1522,43 +1479,42 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="L15" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1570,42 +1526,41 @@
       <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <v>2361</v>
       </c>
-      <c r="K16" s="1">
+      <c r="J16" s="1">
         <v>2361</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" t="s">
+      <c r="K16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="1">
+      <c r="R16" s="1">
         <v>86</v>
       </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1617,40 +1572,39 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <v>1576</v>
       </c>
-      <c r="K17" s="1">
+      <c r="J17" s="1">
         <v>1576</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" t="s">
+      <c r="K17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s">
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s">
         <v>85</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1662,246 +1616,234 @@
       <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <v>4000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="J18" s="1">
         <v>4000</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="N18" s="1" t="s">
+      <c r="K18" s="2"/>
+      <c r="M18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s">
         <v>88</v>
       </c>
-      <c r="S18" s="1">
+      <c r="R18" s="1">
         <v>79</v>
       </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="2"/>
-      <c r="S19" s="1"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="N20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="S20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-      <c r="N21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="2"/>
-      <c r="S21" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="9"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
-      <c r="N22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="2"/>
-      <c r="S22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="7"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="2"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="2"/>
-      <c r="S23" s="1"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="B24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="9"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-      <c r="N24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="2"/>
-      <c r="S24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="7"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-      <c r="N25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="2"/>
-      <c r="S25" s="1"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="1"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="2"/>
-      <c r="N26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="2"/>
-      <c r="S26" s="1"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="2"/>
-      <c r="N27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="2"/>
-      <c r="S27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
-      <c r="N28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="2"/>
-      <c r="S28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="2"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="2"/>
-      <c r="N29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="2"/>
-      <c r="S29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="6"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="3"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
+      <c r="T30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/transcriptions/transcription_ex5.xlsx
+++ b/data/transcriptions/transcription_ex5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6685BEDA-3929-C549-8470-32E6EDB55B84}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C76573-4B7C-7448-92B1-F5749008F416}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -161,15 +161,9 @@
     <t>Léon gn</t>
   </si>
   <si>
-    <t>Henri Marthe</t>
-  </si>
-  <si>
     <t>Calien Cathérine gn</t>
   </si>
   <si>
-    <t>Frèmin</t>
-  </si>
-  <si>
     <t>Ittre</t>
   </si>
   <si>
@@ -188,15 +182,9 @@
     <t>"</t>
   </si>
   <si>
-    <t>7 fevrier 1918</t>
-  </si>
-  <si>
     <t>26 mai 1919</t>
   </si>
   <si>
-    <t>Rebcq</t>
-  </si>
-  <si>
     <t>Nivelles</t>
   </si>
   <si>
@@ -227,9 +215,6 @@
     <t>Durij Marie &amp; autres</t>
   </si>
   <si>
-    <t>Déclare re…</t>
-  </si>
-  <si>
     <t>334/1920</t>
   </si>
   <si>
@@ -287,12 +272,6 @@
     <t>10 janvier 1920</t>
   </si>
   <si>
-    <t>17 9b 1919</t>
-  </si>
-  <si>
-    <t>1 fevrier 1920</t>
-  </si>
-  <si>
     <t>non passible</t>
   </si>
   <si>
@@ -341,9 +320,6 @@
     <t>Blondiau Vital</t>
   </si>
   <si>
-    <t>Lerus Juliette &amp; autres</t>
-  </si>
-  <si>
     <t>Scouppe Jean Bte &amp; autres</t>
   </si>
   <si>
@@ -366,6 +342,30 @@
   </si>
   <si>
     <t>Arreté le vingt novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Firmin</t>
+  </si>
+  <si>
+    <t>Marie Marthe</t>
+  </si>
+  <si>
+    <t>Rebecq</t>
+  </si>
+  <si>
+    <t>7 février 1918</t>
+  </si>
+  <si>
+    <t>Déclare rectificative</t>
+  </si>
+  <si>
+    <t>Ledrus Juliette &amp; autres</t>
+  </si>
+  <si>
+    <t>17 Db 1919</t>
+  </si>
+  <si>
+    <t>1 février 1920</t>
   </si>
 </sst>
 </file>
@@ -621,6 +621,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="200" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,10 +1071,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1079,13 +1083,13 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>5755</v>
@@ -1099,18 +1103,18 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R4" s="1">
         <v>332</v>
@@ -1129,7 +1133,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R5">
         <v>24</v>
@@ -1139,25 +1143,25 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>500</v>
@@ -1167,13 +1171,13 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="R6">
         <v>318</v>
@@ -1193,7 +1197,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="R7">
         <v>378</v>
@@ -1203,10 +1207,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1215,30 +1219,30 @@
         <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
       <c r="L8" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="2"/>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1248,7 +1252,7 @@
         <v>422</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1257,13 +1261,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>346</v>
@@ -1279,14 +1283,14 @@
       <c r="L9" s="9"/>
       <c r="M9" s="1"/>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1296,22 +1300,22 @@
         <v>423</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H10">
         <v>2875</v>
@@ -1323,14 +1327,14 @@
       <c r="L10" s="9"/>
       <c r="M10" s="1"/>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="R10">
         <v>60</v>
@@ -1342,7 +1346,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
@@ -1361,22 +1365,22 @@
         <v>424</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H12">
         <v>86181</v>
@@ -1387,17 +1391,17 @@
       <c r="K12" s="2"/>
       <c r="L12" s="8"/>
       <c r="M12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R12">
         <v>83</v>
@@ -1410,22 +1414,22 @@
         <v>425</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H13">
         <v>1500</v>
@@ -1437,14 +1441,14 @@
       <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1453,7 +1457,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
@@ -1468,47 +1472,47 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1518,22 +1522,22 @@
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H16">
         <v>2361</v>
@@ -1544,14 +1548,14 @@
       <c r="K16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="R16" s="1">
         <v>86</v>
@@ -1564,7 +1568,7 @@
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1573,13 +1577,13 @@
         <v>36</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H17">
         <v>1576</v>
@@ -1590,14 +1594,14 @@
       <c r="K17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="2"/>
@@ -1608,7 +1612,7 @@
         <v>428</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -1617,13 +1621,13 @@
         <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H18">
         <v>4000</v>
@@ -1633,17 +1637,17 @@
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R18" s="1">
         <v>79</v>

--- a/data/transcriptions/transcription_ex5.xlsx
+++ b/data/transcriptions/transcription_ex5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C76573-4B7C-7448-92B1-F5749008F416}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{EFBA3DE7-74C1-D743-9CDA-187428393E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F10854-4FC7-E748-BBE9-A96E8802C3CD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -338,12 +338,6 @@
     <t>Pourtois Célestîne</t>
   </si>
   <si>
-    <t>Arreté le dix neuf novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le vingt novembre 1919 servais</t>
-  </si>
-  <si>
     <t>Firmin</t>
   </si>
   <si>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>1 février 1920</t>
+  </si>
+  <si>
+    <t>Arrêté le dix neuf novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt novembre 1919 servais</t>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="200" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1177,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="2"/>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R6">
         <v>318</v>
@@ -1197,7 +1197,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R7">
         <v>378</v>
@@ -1222,13 +1222,13 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -1306,10 +1306,10 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>48</v>
@@ -1346,7 +1346,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
@@ -1371,7 +1371,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>49</v>
@@ -1380,7 +1380,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <v>86181</v>
@@ -1457,7 +1457,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
@@ -1493,7 +1493,7 @@
         <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
@@ -1531,7 +1531,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>54</v>

--- a/data/transcriptions/transcription_ex5.xlsx
+++ b/data/transcriptions/transcription_ex5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2999F6E9-80BA-4F20-9856-50D3EB858640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45298FF3-15B4-CB4A-9D0A-E7FF73B2614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_46_44_798" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Numéros de la consignation au sommier n'30</t>
   </si>
   <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
-  </si>
-  <si>
     <t>421^2</t>
   </si>
   <si>
@@ -363,13 +354,22 @@
   </si>
   <si>
     <t>318 378</t>
+  </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +401,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,7 +417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -457,21 +464,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -538,119 +530,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,697 +937,697 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="T1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="D2" s="32" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="7" t="s">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>1919</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10">
-        <v>1919</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="11"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="H4" s="13">
         <v>5755</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="13">
         <v>279</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="14">
         <f>H4-I4</f>
         <v>5476</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" t="s">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="13">
+        <v>500</v>
+      </c>
+      <c r="J5" s="14">
+        <v>500</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="19" t="s">
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="20">
-        <v>500</v>
-      </c>
-      <c r="J5" s="21">
-        <v>500</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="27" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="E6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="19" t="s">
+    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>422</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="E7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>422</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="13">
         <v>346</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="13">
         <v>225</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="14">
         <f>H7-I7</f>
         <v>121</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
       <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>423</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" t="s">
+      <c r="E8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2875</v>
+      </c>
+      <c r="J8" s="14">
+        <v>2875</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="13">
+        <v>60</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
-    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>423</v>
-      </c>
-      <c r="B8" s="18" t="s">
+    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>424</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="13">
+        <v>86181</v>
+      </c>
+      <c r="J10" s="14">
+        <v>86181</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="13">
+        <v>83</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>425</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="16"/>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="20">
-        <v>2875</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2875</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="20">
-        <v>60</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
     </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="M12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
     </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>424</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>426</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2361</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2361</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="M14" s="16"/>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="14">
+        <v>86</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>427</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1576</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1576</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="M15" s="16"/>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>428</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="20">
-        <v>86181</v>
-      </c>
-      <c r="J10" s="21">
-        <v>86181</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="23" t="s">
+      <c r="F16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4000</v>
+      </c>
+      <c r="J16" s="14">
+        <v>4000</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="M16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="20">
-        <v>83</v>
-      </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>425</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1500</v>
-      </c>
-      <c r="J11" s="21">
-        <v>1500</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="23"/>
-      <c r="N11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-    </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23" t="s">
+      <c r="P16" s="12"/>
+      <c r="Q16" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="14">
         <v>79</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="M12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-    </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-    </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>426</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="20">
-        <v>2361</v>
-      </c>
-      <c r="J14" s="21">
-        <v>2361</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="M14" s="23"/>
-      <c r="N14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="21">
-        <v>86</v>
-      </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-    </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>427</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1576</v>
-      </c>
-      <c r="J15" s="21">
-        <v>1576</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="M15" s="23"/>
-      <c r="N15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>428</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="J16" s="21">
-        <v>4000</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="M16" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" t="s">
-        <v>105</v>
-      </c>
-      <c r="R16" s="21">
-        <v>79</v>
-      </c>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
